--- a/kb/unit-converter/density.xlsx
+++ b/kb/unit-converter/density.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pumpsorg.sharepoint.com/sites/EngineeringDataLibrary/Shared Documents/General/Work Group(s)/Unit Conversions/unit-converter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\edb\kb\unit-converter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="11_D6B7C1E6CFB067A20DB1AABD102D1596792A1C7D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8E0F0D8-4951-4156-9FD2-D4FCE43B74F0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93F72CF-51DF-4DCA-B021-0CDFD7478DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37380" yWindow="1590" windowWidth="17625" windowHeight="11070" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,15 +31,12 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Measure Label</t>
   </si>
@@ -136,17 +133,54 @@
   <si>
     <t>Specific Gravity 39.2&amp;degF (4&amp;degC)</t>
   </si>
+  <si>
+    <t>kilogram per cubic decimeter</t>
+  </si>
+  <si>
+    <t>gram per cubic centimeter</t>
+  </si>
+  <si>
+    <t>kilogram per cubic meter</t>
+  </si>
+  <si>
+    <t>pound mass per cubic foot</t>
+  </si>
+  <si>
+    <t>pound mass per gallon (Imperial)</t>
+  </si>
+  <si>
+    <t>pound mass per cubic inch</t>
+  </si>
+  <si>
+    <t>pound mass per gallon (US)</t>
+  </si>
+  <si>
+    <t>specific gravity at 68&amp;degF or 20&amp;degC</t>
+  </si>
+  <si>
+    <t>specific gravity at 39.2&amp;degF or 4&amp;degC</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -186,29 +220,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{25C01F93-3429-4B6F-B0B4-F88401B1E4E2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -292,9 +329,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -332,7 +369,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -438,7 +475,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -580,7 +617,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -588,148 +625,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="51.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" customWidth="1"/>
-    <col min="4" max="1025" width="11.5703125"/>
+    <col min="2" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" customWidth="1"/>
+    <col min="5" max="1026" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.899999999999999">
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="3"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" ht="54.75" customHeight="1">
+      <c r="C5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="52.9">
+    <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9">
         <v>62.427</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10">
         <v>10.02241925</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11">
         <v>3.6130000000000002E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12">
         <v>8.3454043759999994</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13">
         <v>1.0018433899999999</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
       <c r="B14">
         <v>1.0001605257643853</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -743,6 +814,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8da57d07-bd53-4918-9441-156ccef8128a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="32f445ef-0db1-4ff5-a403-59aa008b5549" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C5F168F66F91CF43BAEE65DC9E9CF3DF" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="012c7fef03233136f3b92728f80e18f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8da57d07-bd53-4918-9441-156ccef8128a" xmlns:ns3="32f445ef-0db1-4ff5-a403-59aa008b5549" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8bc58cbf5cc050e49b481be3a36a2ee3" ns2:_="" ns3:_="">
     <xsd:import namespace="8da57d07-bd53-4918-9441-156ccef8128a"/>
@@ -979,34 +1070,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8da57d07-bd53-4918-9441-156ccef8128a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="32f445ef-0db1-4ff5-a403-59aa008b5549" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB45C804-33D6-4996-8F8F-BB9030CEEE91}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E39FE0F4-6764-47B6-94E9-76380FEE29E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E39FE0F4-6764-47B6-94E9-76380FEE29E0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1612356B-D643-4A48-94ED-15F9858711A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8da57d07-bd53-4918-9441-156ccef8128a"/>
+    <ds:schemaRef ds:uri="32f445ef-0db1-4ff5-a403-59aa008b5549"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1612356B-D643-4A48-94ED-15F9858711A2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB45C804-33D6-4996-8F8F-BB9030CEEE91}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8da57d07-bd53-4918-9441-156ccef8128a"/>
+    <ds:schemaRef ds:uri="32f445ef-0db1-4ff5-a403-59aa008b5549"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/kb/unit-converter/density.xlsx
+++ b/kb/unit-converter/density.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\edb\kb\unit-converter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93F72CF-51DF-4DCA-B021-0CDFD7478DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23708E7-3B0F-408F-9325-E3ADC01F9761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37380" yWindow="1590" windowWidth="17625" windowHeight="11070" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="19410" windowHeight="13575" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Measure Label</t>
   </si>
@@ -162,6 +162,15 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Default To Row</t>
+  </si>
+  <si>
+    <t>Use this to select the row with the default "to" conversion value when the page loads (default is 8)</t>
+  </si>
+  <si>
+    <t>Default From Row</t>
   </si>
 </sst>
 </file>
@@ -625,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -675,131 +684,155 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>1000</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>62.427</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>10.02241925</v>
+        <v>1000</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>3.6130000000000002E-2</v>
+        <v>62.427</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>8.3454043759999994</v>
+        <v>10.02241925</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>1.0018433899999999</v>
+        <v>3.6130000000000002E-2</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>8.3454043759999994</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>1.0018433899999999</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B14">
+      <c r="B16">
         <v>1.0001605257643853</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -814,15 +847,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8da57d07-bd53-4918-9441-156ccef8128a">
@@ -833,7 +857,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C5F168F66F91CF43BAEE65DC9E9CF3DF" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="012c7fef03233136f3b92728f80e18f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8da57d07-bd53-4918-9441-156ccef8128a" xmlns:ns3="32f445ef-0db1-4ff5-a403-59aa008b5549" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8bc58cbf5cc050e49b481be3a36a2ee3" ns2:_="" ns3:_="">
     <xsd:import namespace="8da57d07-bd53-4918-9441-156ccef8128a"/>
@@ -1070,15 +1094,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E39FE0F4-6764-47B6-94E9-76380FEE29E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1612356B-D643-4A48-94ED-15F9858711A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1089,7 +1114,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB45C804-33D6-4996-8F8F-BB9030CEEE91}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1106,4 +1131,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E39FE0F4-6764-47B6-94E9-76380FEE29E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/kb/unit-converter/density.xlsx
+++ b/kb/unit-converter/density.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pumpsorg.sharepoint.com/sites/EngineeringDataLibrary/Shared Documents/General/Work Group(s)/Unit Conversions/unit-converter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\edb\kb\unit-converter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="11_D6B7C1E6CFB067A20DB1AABD102D1596792A1C7D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8E0F0D8-4951-4156-9FD2-D4FCE43B74F0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23708E7-3B0F-408F-9325-E3ADC01F9761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="19410" windowHeight="13575" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,15 +31,12 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Measure Label</t>
   </si>
@@ -136,17 +133,63 @@
   <si>
     <t>Specific Gravity 39.2&amp;degF (4&amp;degC)</t>
   </si>
+  <si>
+    <t>kilogram per cubic decimeter</t>
+  </si>
+  <si>
+    <t>gram per cubic centimeter</t>
+  </si>
+  <si>
+    <t>kilogram per cubic meter</t>
+  </si>
+  <si>
+    <t>pound mass per cubic foot</t>
+  </si>
+  <si>
+    <t>pound mass per gallon (Imperial)</t>
+  </si>
+  <si>
+    <t>pound mass per cubic inch</t>
+  </si>
+  <si>
+    <t>pound mass per gallon (US)</t>
+  </si>
+  <si>
+    <t>specific gravity at 68&amp;degF or 20&amp;degC</t>
+  </si>
+  <si>
+    <t>specific gravity at 39.2&amp;degF or 4&amp;degC</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Default To Row</t>
+  </si>
+  <si>
+    <t>Use this to select the row with the default "to" conversion value when the page loads (default is 8)</t>
+  </si>
+  <si>
+    <t>Default From Row</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -186,29 +229,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{25C01F93-3429-4B6F-B0B4-F88401B1E4E2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -292,9 +338,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -332,7 +378,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -438,7 +484,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -580,7 +626,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -588,148 +634,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="51.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" customWidth="1"/>
-    <col min="4" max="1025" width="11.5703125"/>
+    <col min="2" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" customWidth="1"/>
+    <col min="5" max="1026" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.899999999999999">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" ht="54.75" customHeight="1">
-      <c r="A6" s="1" t="s">
+      <c r="C7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="52.9">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B8">
+      <c r="B10">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="C10" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>62.427</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C11" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B10">
+      <c r="B12">
         <v>10.02241925</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C12" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B11">
+      <c r="B13">
         <v>3.6130000000000002E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="C13" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B12">
+      <c r="B14">
         <v>8.3454043759999994</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="C14" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B13">
+      <c r="B15">
         <v>1.0018433899999999</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B14">
+      <c r="B16">
         <v>1.0001605257643853</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -743,6 +847,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8da57d07-bd53-4918-9441-156ccef8128a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="32f445ef-0db1-4ff5-a403-59aa008b5549" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C5F168F66F91CF43BAEE65DC9E9CF3DF" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="012c7fef03233136f3b92728f80e18f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8da57d07-bd53-4918-9441-156ccef8128a" xmlns:ns3="32f445ef-0db1-4ff5-a403-59aa008b5549" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8bc58cbf5cc050e49b481be3a36a2ee3" ns2:_="" ns3:_="">
     <xsd:import namespace="8da57d07-bd53-4918-9441-156ccef8128a"/>
@@ -979,7 +1094,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -988,25 +1103,40 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8da57d07-bd53-4918-9441-156ccef8128a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="32f445ef-0db1-4ff5-a403-59aa008b5549" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB45C804-33D6-4996-8F8F-BB9030CEEE91}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1612356B-D643-4A48-94ED-15F9858711A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8da57d07-bd53-4918-9441-156ccef8128a"/>
+    <ds:schemaRef ds:uri="32f445ef-0db1-4ff5-a403-59aa008b5549"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E39FE0F4-6764-47B6-94E9-76380FEE29E0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB45C804-33D6-4996-8F8F-BB9030CEEE91}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8da57d07-bd53-4918-9441-156ccef8128a"/>
+    <ds:schemaRef ds:uri="32f445ef-0db1-4ff5-a403-59aa008b5549"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1612356B-D643-4A48-94ED-15F9858711A2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E39FE0F4-6764-47B6-94E9-76380FEE29E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>